--- a/P4_CreateReportDB/order_date_sum.xlsx
+++ b/P4_CreateReportDB/order_date_sum.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9AF0A9B-3E92-4E60-8C33-B093A53B9B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBF07C-2811-4FC3-A1BD-F457BA2AFD9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,1173 +973,1903 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="28"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="29"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="30"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="31"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="33"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="34"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="35"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="36"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="38"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="39"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="40"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="41"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="42"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="43"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="44"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="45"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="46"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="47"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="48"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="49"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="50"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="51"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="52"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="53"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="54"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="55"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="56"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="57"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="58"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="59"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="60"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="61"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="62"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="63"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="64"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="65"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="66"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="67"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="68"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="69"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="70"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="71"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="72"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="73"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="74"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="75"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="76"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="77"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2163,13 +2893,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2228,13 +2987,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2293,13 +3081,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2358,13 +3175,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2423,13 +3269,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2488,13 +3363,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2553,15 +3457,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2620,15 +3554,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2687,15 +3651,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2754,15 +3748,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2821,15 +3845,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2888,15 +3942,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2955,16 +4039,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3023,16 +4139,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3091,16 +4239,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3159,16 +4339,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3227,16 +4439,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3295,16 +4539,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3363,15 +4639,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3423,8 +4729,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="759899232"/>
         <c:axId val="759900544"/>
       </c:barChart>
@@ -3441,11 +4747,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3459,9 +4765,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3490,9 +4795,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3518,9 +4823,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3560,9 +4864,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3586,17 +4889,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3675,35 +4989,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3711,26 +5023,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3739,9 +5059,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3760,14 +5079,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3776,35 +5087,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3816,30 +5127,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3855,21 +5167,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3879,20 +5188,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3903,17 +5212,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3922,14 +5231,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3941,28 +5249,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3974,17 +5276,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3993,17 +5294,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4012,17 +5313,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4031,27 +5331,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4059,11 +5358,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4071,14 +5380,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4090,12 +5399,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4104,14 +5420,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4120,9 +5435,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4132,7 +5446,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4140,9 +5454,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4153,9 +5467,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4165,14 +5478,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4181,16 +5488,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4219,7 +5526,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ADMIN" refreshedDate="43454.743324074072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1163">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="43454.743324074072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1163" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="order_date_sum"/>
   </cacheSource>
@@ -10211,7 +11518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:U8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -13542,7 +14849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -13974,7 +15281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
